--- a/data/pca/factorExposure/factorExposure_2018-07-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03613591086960117</v>
+        <v>-0.02603291377989791</v>
       </c>
       <c r="C2">
-        <v>-0.03686749282640699</v>
+        <v>-0.01663150682925549</v>
       </c>
       <c r="D2">
-        <v>0.01272332848992156</v>
+        <v>-0.02081679710052645</v>
       </c>
       <c r="E2">
-        <v>-0.04589613760244986</v>
+        <v>0.01439274759143728</v>
       </c>
       <c r="F2">
-        <v>-0.1357877284337448</v>
+        <v>-0.007343261033265987</v>
       </c>
       <c r="G2">
-        <v>0.0781132597302565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07546962121730214</v>
+      </c>
+      <c r="H2">
+        <v>0.03260900405624639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1257425526554908</v>
+        <v>-0.07844703827130417</v>
       </c>
       <c r="C3">
-        <v>-0.03796563147111664</v>
+        <v>0.01278620410936024</v>
       </c>
       <c r="D3">
-        <v>-0.04877866166702673</v>
+        <v>-0.01784036495740906</v>
       </c>
       <c r="E3">
-        <v>-0.08300720822993018</v>
+        <v>0.006368098564680953</v>
       </c>
       <c r="F3">
-        <v>-0.3661162702830934</v>
+        <v>0.04514457914394437</v>
       </c>
       <c r="G3">
-        <v>0.2233269747256331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2385613180632343</v>
+      </c>
+      <c r="H3">
+        <v>0.1007480903462023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05393412844188142</v>
+        <v>-0.04828862275507949</v>
       </c>
       <c r="C4">
-        <v>0.001402821673088235</v>
+        <v>-0.003222603373548762</v>
       </c>
       <c r="D4">
-        <v>0.0390507182295934</v>
+        <v>-0.04172566503204082</v>
       </c>
       <c r="E4">
-        <v>-0.06329761640684119</v>
+        <v>-0.01894539725222455</v>
       </c>
       <c r="F4">
-        <v>-0.07078750721927075</v>
+        <v>-0.04919407076440552</v>
       </c>
       <c r="G4">
-        <v>0.06522394376615441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05302461270356237</v>
+      </c>
+      <c r="H4">
+        <v>0.04073539822145342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0149787080574756</v>
+        <v>-0.02630612441627742</v>
       </c>
       <c r="C6">
-        <v>-0.00953384195159924</v>
+        <v>-0.003744660988278812</v>
       </c>
       <c r="D6">
-        <v>-0.006959929759425514</v>
+        <v>-0.05195903249340998</v>
       </c>
       <c r="E6">
-        <v>-0.02227231608461966</v>
+        <v>-0.003908260441639345</v>
       </c>
       <c r="F6">
-        <v>-0.01323869908520575</v>
+        <v>-0.03011716075286621</v>
       </c>
       <c r="G6">
-        <v>-0.0005094154479798878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01961045013072768</v>
+      </c>
+      <c r="H6">
+        <v>0.05692444176972106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02468363075525272</v>
+        <v>-0.02047068753139482</v>
       </c>
       <c r="C7">
-        <v>-0.00491834557600376</v>
+        <v>-0.003141059695632127</v>
       </c>
       <c r="D7">
-        <v>-0.005490397166085023</v>
+        <v>-0.02523521716926761</v>
       </c>
       <c r="E7">
-        <v>-0.03765733981399348</v>
+        <v>-0.03569262557110888</v>
       </c>
       <c r="F7">
-        <v>-0.0501660905499979</v>
+        <v>-0.008391501071805193</v>
       </c>
       <c r="G7">
-        <v>0.06698370894256149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03342072644998108</v>
+      </c>
+      <c r="H7">
+        <v>0.02902696517152121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02106380566759758</v>
+        <v>-0.006927534060670691</v>
       </c>
       <c r="C8">
-        <v>0.001332722431049134</v>
+        <v>0.002326372628030282</v>
       </c>
       <c r="D8">
-        <v>0.01117241965193681</v>
+        <v>-0.0101729381186082</v>
       </c>
       <c r="E8">
-        <v>-0.06760701441217733</v>
+        <v>-0.01015819319331365</v>
       </c>
       <c r="F8">
-        <v>-0.08793856964319607</v>
+        <v>-0.01824009954042841</v>
       </c>
       <c r="G8">
-        <v>0.08814786148650619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05806515840288394</v>
+      </c>
+      <c r="H8">
+        <v>0.02160315027563414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04562751528812362</v>
+        <v>-0.0398210932686605</v>
       </c>
       <c r="C9">
-        <v>0.009155250307826922</v>
+        <v>0.0009123393154461797</v>
       </c>
       <c r="D9">
-        <v>0.03075745175275015</v>
+        <v>-0.03334112100458059</v>
       </c>
       <c r="E9">
-        <v>-0.06518755909346595</v>
+        <v>-0.01738223986789251</v>
       </c>
       <c r="F9">
-        <v>-0.07207802492896512</v>
+        <v>-0.02409671300570659</v>
       </c>
       <c r="G9">
-        <v>0.06063845697088228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06097866887023629</v>
+      </c>
+      <c r="H9">
+        <v>0.03767267008592438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03044623168150842</v>
+        <v>-0.09978744950673811</v>
       </c>
       <c r="C10">
-        <v>0.0326150413559765</v>
+        <v>0.03113391769241228</v>
       </c>
       <c r="D10">
-        <v>0.02489726217959343</v>
+        <v>0.1528845125009591</v>
       </c>
       <c r="E10">
-        <v>0.1142584140643707</v>
+        <v>0.008175156536300668</v>
       </c>
       <c r="F10">
-        <v>-0.06705812513058408</v>
+        <v>0.04608755204569662</v>
       </c>
       <c r="G10">
-        <v>-0.00425558595078315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02226914655552769</v>
+      </c>
+      <c r="H10">
+        <v>0.00366779425131159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0368504352324858</v>
+        <v>-0.02128318454341922</v>
       </c>
       <c r="C11">
-        <v>-0.01963843087956392</v>
+        <v>0.008343823725443031</v>
       </c>
       <c r="D11">
-        <v>0.001290291928088783</v>
+        <v>-0.03688548423605677</v>
       </c>
       <c r="E11">
-        <v>-0.03684773894384526</v>
+        <v>0.005272648824121298</v>
       </c>
       <c r="F11">
-        <v>-0.03467200575255804</v>
+        <v>-0.01014472148037694</v>
       </c>
       <c r="G11">
-        <v>0.02447064673112908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03334570150108508</v>
+      </c>
+      <c r="H11">
+        <v>0.03510125482808362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04459623062399194</v>
+        <v>-0.02998571609443359</v>
       </c>
       <c r="C12">
-        <v>-0.007859187382542222</v>
+        <v>0.006858473786200995</v>
       </c>
       <c r="D12">
-        <v>0.009057700258187723</v>
+        <v>-0.03809235013328269</v>
       </c>
       <c r="E12">
-        <v>-0.04319724738319532</v>
+        <v>-0.006267089603249245</v>
       </c>
       <c r="F12">
-        <v>-0.02119797344916129</v>
+        <v>-0.01684807356385173</v>
       </c>
       <c r="G12">
-        <v>0.01667982922206024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01434939823804535</v>
+      </c>
+      <c r="H12">
+        <v>0.01883008639430082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02056179868367489</v>
+        <v>-0.02632258671404433</v>
       </c>
       <c r="C13">
-        <v>-0.03463087562405547</v>
+        <v>-0.01337471409349647</v>
       </c>
       <c r="D13">
-        <v>0.007721051547196756</v>
+        <v>-0.003021015340498703</v>
       </c>
       <c r="E13">
-        <v>-0.01740969140780074</v>
+        <v>0.01738541827859956</v>
       </c>
       <c r="F13">
-        <v>-0.07581306477599482</v>
+        <v>-0.01093094610389761</v>
       </c>
       <c r="G13">
-        <v>0.04962136584493977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06384666206448041</v>
+      </c>
+      <c r="H13">
+        <v>0.03735158624866341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01091693332023365</v>
+        <v>-0.01567464784611248</v>
       </c>
       <c r="C14">
-        <v>-0.005685558215896862</v>
+        <v>-0.0008624971297446059</v>
       </c>
       <c r="D14">
-        <v>0.006993790935862494</v>
+        <v>-0.005690207708683176</v>
       </c>
       <c r="E14">
-        <v>-0.03884364634982502</v>
+        <v>-0.007973863920363814</v>
       </c>
       <c r="F14">
-        <v>-0.04857857745505866</v>
+        <v>-0.0156571970652469</v>
       </c>
       <c r="G14">
-        <v>0.07467877304866057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04598844504088521</v>
+      </c>
+      <c r="H14">
+        <v>-0.009642234006072184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02759127581806304</v>
+        <v>-0.02273972569212414</v>
       </c>
       <c r="C16">
-        <v>-0.01852756382914467</v>
+        <v>0.008922275149533825</v>
       </c>
       <c r="D16">
-        <v>0.003391255804942078</v>
+        <v>-0.03343316892010081</v>
       </c>
       <c r="E16">
-        <v>-0.03355241205831381</v>
+        <v>0.000278441654990393</v>
       </c>
       <c r="F16">
-        <v>-0.04164422638923777</v>
+        <v>-0.01529482418381142</v>
       </c>
       <c r="G16">
-        <v>0.02723489908696243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03080905234774173</v>
+      </c>
+      <c r="H16">
+        <v>0.0288136146290006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04584040302225164</v>
+        <v>-0.03395335028918045</v>
       </c>
       <c r="C19">
-        <v>-0.02024444810969146</v>
+        <v>0.0003434784378092791</v>
       </c>
       <c r="D19">
-        <v>0.001515674366384672</v>
+        <v>-0.0158288351789768</v>
       </c>
       <c r="E19">
-        <v>-0.05253082961573634</v>
+        <v>0.001002727483844757</v>
       </c>
       <c r="F19">
-        <v>-0.09752733890546769</v>
+        <v>-0.02106903588130581</v>
       </c>
       <c r="G19">
-        <v>0.06115413710166288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07411311416822215</v>
+      </c>
+      <c r="H19">
+        <v>0.05021941149535102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002036225119544006</v>
+        <v>-0.01021298243512707</v>
       </c>
       <c r="C20">
-        <v>-0.01326996411295824</v>
+        <v>-0.006421117366676365</v>
       </c>
       <c r="D20">
-        <v>0.01492178121075634</v>
+        <v>-0.005207068850446488</v>
       </c>
       <c r="E20">
-        <v>-0.03871643012344212</v>
+        <v>-4.230195884157148e-05</v>
       </c>
       <c r="F20">
-        <v>-0.04995949819412296</v>
+        <v>-0.01086622368843224</v>
       </c>
       <c r="G20">
-        <v>0.08198515733933558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05238537105917319</v>
+      </c>
+      <c r="H20">
+        <v>0.0004032790338438089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0008562300485115738</v>
+        <v>-0.01895879008819358</v>
       </c>
       <c r="C21">
-        <v>-0.0004786132819127438</v>
+        <v>-0.006717604914276661</v>
       </c>
       <c r="D21">
-        <v>-0.0119352325508213</v>
+        <v>-0.009184312224163957</v>
       </c>
       <c r="E21">
-        <v>-0.03998697047793937</v>
+        <v>-0.01085767096165022</v>
       </c>
       <c r="F21">
-        <v>-0.05966133131240583</v>
+        <v>-0.006103343675472331</v>
       </c>
       <c r="G21">
-        <v>0.03677388590890275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05973668770972007</v>
+      </c>
+      <c r="H21">
+        <v>0.01580894857501473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03355131132067514</v>
+        <v>-0.02067720723497985</v>
       </c>
       <c r="C24">
-        <v>-0.01513743196387774</v>
+        <v>0.003369767198331212</v>
       </c>
       <c r="D24">
-        <v>0.01023753092477842</v>
+        <v>-0.03334749140368047</v>
       </c>
       <c r="E24">
-        <v>-0.01894636980229936</v>
+        <v>0.0001048054600792638</v>
       </c>
       <c r="F24">
-        <v>-0.03625768879210012</v>
+        <v>-0.009149927298364014</v>
       </c>
       <c r="G24">
-        <v>0.02394497112108715</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02693796240138684</v>
+      </c>
+      <c r="H24">
+        <v>0.03182802565794034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03215121543252566</v>
+        <v>-0.029657106576358</v>
       </c>
       <c r="C25">
-        <v>-0.009186466559417128</v>
+        <v>0.001224874721409272</v>
       </c>
       <c r="D25">
-        <v>0.002047260518055085</v>
+        <v>-0.03322871504260079</v>
       </c>
       <c r="E25">
-        <v>-0.04051950702085137</v>
+        <v>-0.001411242337145493</v>
       </c>
       <c r="F25">
-        <v>-0.03503366614248263</v>
+        <v>-0.01590710292650303</v>
       </c>
       <c r="G25">
-        <v>0.008412300799219691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0314261749942089</v>
+      </c>
+      <c r="H25">
+        <v>0.03446209413240325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02363326113448513</v>
+        <v>-0.02073878836706236</v>
       </c>
       <c r="C26">
-        <v>-0.02686490184625341</v>
+        <v>-0.0166991451025306</v>
       </c>
       <c r="D26">
-        <v>-0.01740274477457167</v>
+        <v>-0.002361282832305018</v>
       </c>
       <c r="E26">
-        <v>-0.03321393653042906</v>
+        <v>0.00714109070983896</v>
       </c>
       <c r="F26">
-        <v>-0.0576575835615861</v>
+        <v>-0.0004829002210563006</v>
       </c>
       <c r="G26">
-        <v>0.04067040424274441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03637389006913731</v>
+      </c>
+      <c r="H26">
+        <v>0.007097820302959408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06923157587725894</v>
+        <v>-0.02686275106907076</v>
       </c>
       <c r="C27">
-        <v>-0.00672481861137699</v>
+        <v>0.01080669218432263</v>
       </c>
       <c r="D27">
-        <v>0.05182165083532376</v>
+        <v>-0.01668355326238331</v>
       </c>
       <c r="E27">
-        <v>-0.04028359859491531</v>
+        <v>-0.00492139611947293</v>
       </c>
       <c r="F27">
-        <v>-0.04336554494545579</v>
+        <v>-0.02111223322473399</v>
       </c>
       <c r="G27">
-        <v>0.04322676408376771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02280432943289857</v>
+      </c>
+      <c r="H27">
+        <v>0.000966851989627293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04716146323085324</v>
+        <v>-0.1494659704343204</v>
       </c>
       <c r="C28">
-        <v>0.04878411648214494</v>
+        <v>0.03331232333979077</v>
       </c>
       <c r="D28">
-        <v>0.04649020644808716</v>
+        <v>0.2256375338928044</v>
       </c>
       <c r="E28">
-        <v>0.1699718420545517</v>
+        <v>0.005165932773840557</v>
       </c>
       <c r="F28">
-        <v>-0.08422631839218345</v>
+        <v>0.05154456829787629</v>
       </c>
       <c r="G28">
-        <v>0.02419185238460258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.007334978661758884</v>
+      </c>
+      <c r="H28">
+        <v>-0.01403828618200358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02071234610216096</v>
+        <v>-0.02080922895738512</v>
       </c>
       <c r="C29">
-        <v>0.001305723121267245</v>
+        <v>0.001479053937683155</v>
       </c>
       <c r="D29">
-        <v>0.0126559884420998</v>
+        <v>-0.00871722900415464</v>
       </c>
       <c r="E29">
-        <v>-0.05102961400012659</v>
+        <v>-0.009447252862127104</v>
       </c>
       <c r="F29">
-        <v>-0.04033901271462279</v>
+        <v>-0.01827244438334323</v>
       </c>
       <c r="G29">
-        <v>0.06833336785853883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04088943363262965</v>
+      </c>
+      <c r="H29">
+        <v>-0.01115189338390765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09305140703520151</v>
+        <v>-0.05188259958139011</v>
       </c>
       <c r="C30">
-        <v>-0.04913733573387843</v>
+        <v>-0.004284496203498901</v>
       </c>
       <c r="D30">
-        <v>0.03345461966138778</v>
+        <v>-0.06676616330855802</v>
       </c>
       <c r="E30">
-        <v>-0.0777080985152465</v>
+        <v>0.03661813170436235</v>
       </c>
       <c r="F30">
-        <v>-0.07543038393507712</v>
+        <v>-0.04771195107847065</v>
       </c>
       <c r="G30">
-        <v>0.04727889050447598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06845549285395418</v>
+      </c>
+      <c r="H30">
+        <v>0.04946653498888336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06451438906194092</v>
+        <v>-0.05469952306794239</v>
       </c>
       <c r="C31">
-        <v>-0.04003480679937089</v>
+        <v>0.01553747665738101</v>
       </c>
       <c r="D31">
-        <v>0.0001364342947871007</v>
+        <v>-0.02837204313301289</v>
       </c>
       <c r="E31">
-        <v>-0.03044781915604077</v>
+        <v>0.009307015176158475</v>
       </c>
       <c r="F31">
-        <v>-0.02801831264836104</v>
+        <v>-0.01514286777778548</v>
       </c>
       <c r="G31">
-        <v>0.08807409408134838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02500806679206778</v>
+      </c>
+      <c r="H31">
+        <v>-0.007482038794510251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02117225898327563</v>
+        <v>-0.0102577231564419</v>
       </c>
       <c r="C32">
-        <v>-0.01157543451686863</v>
+        <v>0.01364335471690282</v>
       </c>
       <c r="D32">
-        <v>0.01350098030303769</v>
+        <v>-0.003523884898888018</v>
       </c>
       <c r="E32">
-        <v>-0.08272212920645806</v>
+        <v>-0.01925068906875439</v>
       </c>
       <c r="F32">
-        <v>-0.05440687451999072</v>
+        <v>-0.04144322483234132</v>
       </c>
       <c r="G32">
-        <v>0.05028599040628569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05018402722878057</v>
+      </c>
+      <c r="H32">
+        <v>0.05048395810466809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0546006426990335</v>
+        <v>-0.0388329910931449</v>
       </c>
       <c r="C33">
-        <v>-0.03393176731287607</v>
+        <v>0.001402283551894097</v>
       </c>
       <c r="D33">
-        <v>-0.01979501323818515</v>
+        <v>-0.028863558239462</v>
       </c>
       <c r="E33">
-        <v>-0.06268819938896661</v>
+        <v>0.02537703737154373</v>
       </c>
       <c r="F33">
-        <v>-0.07941499074620427</v>
+        <v>9.683038447037246e-05</v>
       </c>
       <c r="G33">
-        <v>0.06054419333350954</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05995272276836053</v>
+      </c>
+      <c r="H33">
+        <v>0.02626130198727832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03532098344260597</v>
+        <v>-0.0267416141007445</v>
       </c>
       <c r="C34">
-        <v>-0.0157897213499444</v>
+        <v>0.01736729881035034</v>
       </c>
       <c r="D34">
-        <v>0.01169963770262495</v>
+        <v>-0.03454950610103076</v>
       </c>
       <c r="E34">
-        <v>-0.04183535564377854</v>
+        <v>-0.005277055143049083</v>
       </c>
       <c r="F34">
-        <v>-0.0468279524950999</v>
+        <v>-0.01670999707610281</v>
       </c>
       <c r="G34">
-        <v>0.01658147030390509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02609387738371511</v>
+      </c>
+      <c r="H34">
+        <v>0.03043626597998998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01482341043026738</v>
+        <v>-0.02153831197638269</v>
       </c>
       <c r="C36">
-        <v>-0.003223272115579431</v>
+        <v>-0.003379933644207453</v>
       </c>
       <c r="D36">
-        <v>0.004600562706816982</v>
+        <v>0.0006615333994806108</v>
       </c>
       <c r="E36">
-        <v>-0.03003850245687609</v>
+        <v>-0.002337796721736136</v>
       </c>
       <c r="F36">
-        <v>-0.02862059387017838</v>
+        <v>-0.005777849785523143</v>
       </c>
       <c r="G36">
-        <v>0.04086323752704604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0228878176000717</v>
+      </c>
+      <c r="H36">
+        <v>0.0006260372126093652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002087713966286218</v>
+        <v>-0.02296945607799347</v>
       </c>
       <c r="C38">
-        <v>0.01047702820944337</v>
+        <v>0.01669839205156803</v>
       </c>
       <c r="D38">
-        <v>-0.0160195126028842</v>
+        <v>-0.002122312555123888</v>
       </c>
       <c r="E38">
-        <v>0.00241897973989817</v>
+        <v>-0.00350866505244827</v>
       </c>
       <c r="F38">
-        <v>-0.04621705437591188</v>
+        <v>-0.006024274014572875</v>
       </c>
       <c r="G38">
-        <v>-0.005299741220556329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03111141552189674</v>
+      </c>
+      <c r="H38">
+        <v>0.03231139166828221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04261245190067262</v>
+        <v>-0.01962915067934077</v>
       </c>
       <c r="C39">
-        <v>-0.03319041312625395</v>
+        <v>0.001065141096798366</v>
       </c>
       <c r="D39">
-        <v>0.01139147613394483</v>
+        <v>-0.07490580071097634</v>
       </c>
       <c r="E39">
-        <v>-0.04829624568356177</v>
+        <v>0.005579526606873688</v>
       </c>
       <c r="F39">
-        <v>-0.05593098775185923</v>
+        <v>-0.02046633498972529</v>
       </c>
       <c r="G39">
-        <v>0.02481332904638317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0552032687024864</v>
+      </c>
+      <c r="H39">
+        <v>0.05824469842451886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03747756065032214</v>
+        <v>-0.03343643647207081</v>
       </c>
       <c r="C40">
-        <v>-0.06665990033925302</v>
+        <v>0.001941530538808763</v>
       </c>
       <c r="D40">
-        <v>0.02022968467337269</v>
+        <v>-0.01909779434096295</v>
       </c>
       <c r="E40">
-        <v>-0.03887451182476648</v>
+        <v>0.02434943843657271</v>
       </c>
       <c r="F40">
-        <v>-0.0724589318112729</v>
+        <v>-0.02561841121394894</v>
       </c>
       <c r="G40">
-        <v>0.05645867630176149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04209116820213524</v>
+      </c>
+      <c r="H40">
+        <v>0.06018685815742663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0005215516083043903</v>
+        <v>-0.01240750962655842</v>
       </c>
       <c r="C41">
-        <v>-0.001190535912696553</v>
+        <v>0.0004249724168644505</v>
       </c>
       <c r="D41">
-        <v>-0.00295927582526059</v>
+        <v>0.0125280946734154</v>
       </c>
       <c r="E41">
-        <v>-0.01338338894728361</v>
+        <v>0.000992245341295276</v>
       </c>
       <c r="F41">
-        <v>0.002282317456703961</v>
+        <v>-0.001165632012288228</v>
       </c>
       <c r="G41">
-        <v>0.05458159077904889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006742971805901598</v>
+      </c>
+      <c r="H41">
+        <v>-0.01117147566440836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3811209680849987</v>
+        <v>-0.1960992408240304</v>
       </c>
       <c r="C42">
-        <v>0.1220509974904676</v>
+        <v>-0.07380959028288718</v>
       </c>
       <c r="D42">
-        <v>-0.8648017618059941</v>
+        <v>-0.3721830712853795</v>
       </c>
       <c r="E42">
-        <v>0.1463635081798838</v>
+        <v>0.1554400122381533</v>
       </c>
       <c r="F42">
-        <v>0.1826916387328464</v>
+        <v>0.8592987476382886</v>
       </c>
       <c r="G42">
-        <v>0.04053007506460997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1868460595932531</v>
+      </c>
+      <c r="H42">
+        <v>-0.02660789236902604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006567953788022134</v>
+        <v>-0.01106026434189848</v>
       </c>
       <c r="C43">
-        <v>-0.004507611816112198</v>
+        <v>-0.001736025978470972</v>
       </c>
       <c r="D43">
-        <v>-0.01506184809695243</v>
+        <v>0.01580799329473864</v>
       </c>
       <c r="E43">
-        <v>-0.01849533617402997</v>
+        <v>0.007288621162289156</v>
       </c>
       <c r="F43">
-        <v>-0.01674222359135705</v>
+        <v>0.009386776015159725</v>
       </c>
       <c r="G43">
-        <v>0.05588112416932022</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01334612653647941</v>
+      </c>
+      <c r="H43">
+        <v>-0.006185541464989559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0165976610705478</v>
+        <v>-0.01366077258879095</v>
       </c>
       <c r="C44">
-        <v>-0.01107739937831991</v>
+        <v>0.001021943364186313</v>
       </c>
       <c r="D44">
-        <v>-0.01354256380987766</v>
+        <v>-0.01905235855694086</v>
       </c>
       <c r="E44">
-        <v>-0.049101014756323</v>
+        <v>-0.001716182305404464</v>
       </c>
       <c r="F44">
-        <v>-0.1149753306572739</v>
+        <v>0.004953509846298504</v>
       </c>
       <c r="G44">
-        <v>0.1193102431214747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0632224589687911</v>
+      </c>
+      <c r="H44">
+        <v>0.036804406311087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01976032936998649</v>
+        <v>-0.0188666623287366</v>
       </c>
       <c r="C46">
-        <v>-0.01353103214597491</v>
+        <v>-0.003463237312359008</v>
       </c>
       <c r="D46">
-        <v>-0.007982230426317646</v>
+        <v>-0.01505190068913948</v>
       </c>
       <c r="E46">
-        <v>-0.06121866204856784</v>
+        <v>0.001508760600050181</v>
       </c>
       <c r="F46">
-        <v>-0.05202151392999783</v>
+        <v>-0.01553782719016988</v>
       </c>
       <c r="G46">
-        <v>0.07550494096281844</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05615174453876432</v>
+      </c>
+      <c r="H46">
+        <v>-0.002689057038009298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.1008931721868346</v>
+        <v>-0.07505531927720276</v>
       </c>
       <c r="C47">
-        <v>-0.03283183994230296</v>
+        <v>0.03095325995402128</v>
       </c>
       <c r="D47">
-        <v>0.01958627706293134</v>
+        <v>-0.04180262678180507</v>
       </c>
       <c r="E47">
-        <v>-0.03190383143936933</v>
+        <v>0.005759098465432468</v>
       </c>
       <c r="F47">
-        <v>0.005505264014445692</v>
+        <v>-0.02398940323863157</v>
       </c>
       <c r="G47">
-        <v>0.09094755421392933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.005756096674185576</v>
+      </c>
+      <c r="H47">
+        <v>-0.02839919668126592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01794489829085429</v>
+        <v>-0.02285365895302799</v>
       </c>
       <c r="C48">
-        <v>-0.01234076697020798</v>
+        <v>0.007141635055140056</v>
       </c>
       <c r="D48">
-        <v>-0.003404708384053884</v>
+        <v>-0.003973249398160539</v>
       </c>
       <c r="E48">
-        <v>-0.03343023876510997</v>
+        <v>0.002484516846965705</v>
       </c>
       <c r="F48">
-        <v>-0.04414964983256891</v>
+        <v>-0.008147729072751474</v>
       </c>
       <c r="G48">
-        <v>0.02644501673580524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02936725576560946</v>
+      </c>
+      <c r="H48">
+        <v>0.007909924467629574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09443013855242423</v>
+        <v>-0.07263716824104374</v>
       </c>
       <c r="C50">
-        <v>-0.03665002764593243</v>
+        <v>0.02788345550702876</v>
       </c>
       <c r="D50">
-        <v>0.008584810763819901</v>
+        <v>-0.04574783218594177</v>
       </c>
       <c r="E50">
-        <v>-0.05064737804446934</v>
+        <v>-0.008408476486685973</v>
       </c>
       <c r="F50">
-        <v>-0.02735630198251986</v>
+        <v>-0.02080248023011041</v>
       </c>
       <c r="G50">
-        <v>0.04858236513097666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02367367317154675</v>
+      </c>
+      <c r="H50">
+        <v>-0.01725938768471577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01742475441336045</v>
+        <v>-0.0182090320024622</v>
       </c>
       <c r="C51">
-        <v>-0.01676889985797883</v>
+        <v>-0.001278230278538036</v>
       </c>
       <c r="D51">
-        <v>-0.01408609860791731</v>
+        <v>0.008169729843593909</v>
       </c>
       <c r="E51">
-        <v>-0.01687805216299641</v>
+        <v>0.005850431517998025</v>
       </c>
       <c r="F51">
-        <v>-0.1267219595933179</v>
+        <v>0.01199656608205302</v>
       </c>
       <c r="G51">
-        <v>0.07453664735922481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.06479515101627639</v>
+      </c>
+      <c r="H51">
+        <v>0.03452319072580722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1060111462708208</v>
+        <v>-0.09089529492931513</v>
       </c>
       <c r="C53">
-        <v>-0.03844769483368372</v>
+        <v>0.03721294898555763</v>
       </c>
       <c r="D53">
-        <v>0.02596504840213277</v>
+        <v>-0.07903029784790369</v>
       </c>
       <c r="E53">
-        <v>-0.04569457297722838</v>
+        <v>0.003738360601037862</v>
       </c>
       <c r="F53">
-        <v>0.06134882682198466</v>
+        <v>-0.05170952805181115</v>
       </c>
       <c r="G53">
-        <v>0.0306501457163277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04822030984674799</v>
+      </c>
+      <c r="H53">
+        <v>-0.0401868874766377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01298333606085707</v>
+        <v>-0.02272286254009709</v>
       </c>
       <c r="C54">
-        <v>-0.003497960890509541</v>
+        <v>0.01100348019691266</v>
       </c>
       <c r="D54">
-        <v>0.01264935850827313</v>
+        <v>0.01518536630701864</v>
       </c>
       <c r="E54">
-        <v>-0.0378240117526636</v>
+        <v>-0.005954344749078941</v>
       </c>
       <c r="F54">
-        <v>-0.04849516469938116</v>
+        <v>-0.008592016727451569</v>
       </c>
       <c r="G54">
-        <v>0.100573097787135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.036498953496748</v>
+      </c>
+      <c r="H54">
+        <v>-0.008858775940623443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1014003394841097</v>
+        <v>-0.07556856617966108</v>
       </c>
       <c r="C55">
-        <v>-0.007119436646874893</v>
+        <v>0.03211039664873797</v>
       </c>
       <c r="D55">
-        <v>0.02584304853193528</v>
+        <v>-0.07645503127771656</v>
       </c>
       <c r="E55">
-        <v>-0.05258109783080671</v>
+        <v>-0.00789242769776506</v>
       </c>
       <c r="F55">
-        <v>0.05280770369497248</v>
+        <v>-0.04099379565070461</v>
       </c>
       <c r="G55">
-        <v>0.06063089748902457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02616152950445203</v>
+      </c>
+      <c r="H55">
+        <v>-0.04875142637058527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1499900667150595</v>
+        <v>-0.1264941009484507</v>
       </c>
       <c r="C56">
-        <v>-0.0433328208045583</v>
+        <v>0.05799747215706556</v>
       </c>
       <c r="D56">
-        <v>0.08573755415315223</v>
+        <v>-0.1005201771495288</v>
       </c>
       <c r="E56">
-        <v>-0.04930560641818088</v>
+        <v>0.0007673940487715364</v>
       </c>
       <c r="F56">
-        <v>0.1329113776218588</v>
+        <v>-0.08360110079523675</v>
       </c>
       <c r="G56">
-        <v>-0.03510599190031397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08242685980010378</v>
+      </c>
+      <c r="H56">
+        <v>-0.03929894125765229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04512245980470755</v>
+        <v>-0.04008784376208124</v>
       </c>
       <c r="C57">
-        <v>-0.03003245059090419</v>
+        <v>-0.00970941146197052</v>
       </c>
       <c r="D57">
-        <v>-0.01185067471851213</v>
+        <v>-0.02486999636857326</v>
       </c>
       <c r="E57">
-        <v>0.004643571643002564</v>
+        <v>0.01245603507971343</v>
       </c>
       <c r="F57">
-        <v>-0.07949494047728489</v>
+        <v>-0.009704260268675709</v>
       </c>
       <c r="G57">
-        <v>0.04402185311060884</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06071889214793962</v>
+      </c>
+      <c r="H57">
+        <v>0.0274766291573721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2096922741623252</v>
+        <v>-0.1448235528875038</v>
       </c>
       <c r="C58">
-        <v>-0.1017131222943335</v>
+        <v>0.04389002106848833</v>
       </c>
       <c r="D58">
-        <v>-0.03193527754953998</v>
+        <v>-0.135341001391965</v>
       </c>
       <c r="E58">
-        <v>-0.2002650466020979</v>
+        <v>0.1269122376413798</v>
       </c>
       <c r="F58">
-        <v>-0.2786696876805191</v>
+        <v>0.04547654722462161</v>
       </c>
       <c r="G58">
-        <v>0.06717399161616761</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7537574483510648</v>
+      </c>
+      <c r="H58">
+        <v>-0.4709583764826617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04921357951718253</v>
+        <v>-0.1555214048311204</v>
       </c>
       <c r="C59">
-        <v>0.0120604002141602</v>
+        <v>0.0413568923283108</v>
       </c>
       <c r="D59">
-        <v>0.06009851842447199</v>
+        <v>0.2217932181941776</v>
       </c>
       <c r="E59">
-        <v>0.1401984482209303</v>
+        <v>0.02432138520139426</v>
       </c>
       <c r="F59">
-        <v>-0.09441184205926785</v>
+        <v>0.03235519296096303</v>
       </c>
       <c r="G59">
-        <v>-0.02001500198705043</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.007543245800485209</v>
+      </c>
+      <c r="H59">
+        <v>0.02235937302656121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1663591043715755</v>
+        <v>-0.1721075748522644</v>
       </c>
       <c r="C60">
-        <v>-0.06509855182731671</v>
+        <v>0.03868060012022833</v>
       </c>
       <c r="D60">
-        <v>-0.008708468124399238</v>
+        <v>-0.02256887495883591</v>
       </c>
       <c r="E60">
-        <v>-0.01730797220491541</v>
+        <v>0.05316190565231094</v>
       </c>
       <c r="F60">
-        <v>-0.1909696481617736</v>
+        <v>-0.03084676197862507</v>
       </c>
       <c r="G60">
-        <v>-0.3205029778744843</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09485092940118478</v>
+      </c>
+      <c r="H60">
+        <v>0.3911500034647379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02272029342767658</v>
+        <v>-0.0213213597011748</v>
       </c>
       <c r="C61">
-        <v>-0.008601702206601169</v>
+        <v>0.006323942659805978</v>
       </c>
       <c r="D61">
-        <v>-0.002403476377810898</v>
+        <v>-0.04360939687149737</v>
       </c>
       <c r="E61">
-        <v>-0.0262514545494288</v>
+        <v>-0.0008387724896849184</v>
       </c>
       <c r="F61">
-        <v>-0.03304509926178747</v>
+        <v>-0.01638392018214505</v>
       </c>
       <c r="G61">
-        <v>0.01007111137886482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03335640342820714</v>
+      </c>
+      <c r="H61">
+        <v>0.04220152244427661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01577843172315212</v>
+        <v>-0.01251346801617943</v>
       </c>
       <c r="C63">
-        <v>-0.009166406587299959</v>
+        <v>-0.002148297442380618</v>
       </c>
       <c r="D63">
-        <v>0.0009605079491499744</v>
+        <v>-0.01244161308633771</v>
       </c>
       <c r="E63">
-        <v>-0.04261476269423441</v>
+        <v>-0.001652189190030349</v>
       </c>
       <c r="F63">
-        <v>-0.002466958791180686</v>
+        <v>-0.01481640286248295</v>
       </c>
       <c r="G63">
-        <v>0.05374728165812107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01719565824153976</v>
+      </c>
+      <c r="H63">
+        <v>-0.009898117350102207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03428840266842503</v>
+        <v>-0.0403771938258231</v>
       </c>
       <c r="C64">
-        <v>0.01639078905803488</v>
+        <v>0.01038963685650378</v>
       </c>
       <c r="D64">
-        <v>0.01599185875588672</v>
+        <v>-0.03985873993055044</v>
       </c>
       <c r="E64">
-        <v>-0.04532584542105784</v>
+        <v>-0.009052775737730105</v>
       </c>
       <c r="F64">
-        <v>-0.009104965235166389</v>
+        <v>-0.008674734439276886</v>
       </c>
       <c r="G64">
-        <v>0.06394749468792495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01695325448166187</v>
+      </c>
+      <c r="H64">
+        <v>0.02824252156944267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01613042978508926</v>
+        <v>-0.02928683096121243</v>
       </c>
       <c r="C65">
-        <v>-0.01031323542773763</v>
+        <v>-0.004357682841092058</v>
       </c>
       <c r="D65">
-        <v>-0.00778093970805245</v>
+        <v>-0.06107111346517666</v>
       </c>
       <c r="E65">
-        <v>-0.02141486472187357</v>
+        <v>-0.006108709042628137</v>
       </c>
       <c r="F65">
-        <v>-0.009480324897723389</v>
+        <v>-0.03336025741722856</v>
       </c>
       <c r="G65">
-        <v>-0.00526604095193089</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.007550484506728365</v>
+      </c>
+      <c r="H65">
+        <v>0.06269531954949213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04532209065704885</v>
+        <v>-0.0259798175737609</v>
       </c>
       <c r="C66">
-        <v>-0.03842903746216855</v>
+        <v>0.005611935847874562</v>
       </c>
       <c r="D66">
-        <v>0.009200310514386885</v>
+        <v>-0.08776309933214936</v>
       </c>
       <c r="E66">
-        <v>-0.04543453464421159</v>
+        <v>0.01129473706176991</v>
       </c>
       <c r="F66">
-        <v>-0.05400945395102974</v>
+        <v>-0.03576334610125947</v>
       </c>
       <c r="G66">
-        <v>0.01340625393183568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04602655481165189</v>
+      </c>
+      <c r="H66">
+        <v>0.06547585868824722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01634598748515473</v>
+        <v>-0.04348207533220265</v>
       </c>
       <c r="C67">
-        <v>0.01019784094339967</v>
+        <v>0.020447782240935</v>
       </c>
       <c r="D67">
-        <v>-0.007924137765407379</v>
+        <v>0.00291403673439557</v>
       </c>
       <c r="E67">
-        <v>0.02286626016924886</v>
+        <v>-0.00193655148335424</v>
       </c>
       <c r="F67">
-        <v>-0.03509241353379879</v>
+        <v>-0.01177026567404699</v>
       </c>
       <c r="G67">
-        <v>-0.0238799580685395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01382145282912333</v>
+      </c>
+      <c r="H67">
+        <v>0.03847839142520955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06081684612645723</v>
+        <v>-0.1591199384687355</v>
       </c>
       <c r="C68">
-        <v>0.04009755399513199</v>
+        <v>0.0219352013790884</v>
       </c>
       <c r="D68">
-        <v>0.07078748211171448</v>
+        <v>0.2188150350814232</v>
       </c>
       <c r="E68">
-        <v>0.1841362706265552</v>
+        <v>0.01946825798557313</v>
       </c>
       <c r="F68">
-        <v>-0.08112602777078898</v>
+        <v>0.05403563483989356</v>
       </c>
       <c r="G68">
-        <v>-0.03230135631180171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01288568811681469</v>
+      </c>
+      <c r="H68">
+        <v>-0.03756707557651648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07490726357001445</v>
+        <v>-0.0583103472047215</v>
       </c>
       <c r="C69">
-        <v>-0.0300024157971013</v>
+        <v>0.02905778413937351</v>
       </c>
       <c r="D69">
-        <v>0.02326885504943727</v>
+        <v>-0.03953942408802011</v>
       </c>
       <c r="E69">
-        <v>-0.01484676469998704</v>
+        <v>0.005538457848785755</v>
       </c>
       <c r="F69">
-        <v>0.002451125805720523</v>
+        <v>-0.02839753927738843</v>
       </c>
       <c r="G69">
-        <v>0.07638063302344129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.003809979093954024</v>
+      </c>
+      <c r="H69">
+        <v>-0.007532325773871269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07682031641797586</v>
+        <v>-0.1504578537504438</v>
       </c>
       <c r="C71">
-        <v>0.02573965572268969</v>
+        <v>0.02920029794157786</v>
       </c>
       <c r="D71">
-        <v>0.05963070968453962</v>
+        <v>0.2018680344922317</v>
       </c>
       <c r="E71">
-        <v>0.213920300723601</v>
+        <v>0.02089244746882051</v>
       </c>
       <c r="F71">
-        <v>-0.09085531207536406</v>
+        <v>0.06444894739484029</v>
       </c>
       <c r="G71">
-        <v>0.007820344558869678</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.006737104080857193</v>
+      </c>
+      <c r="H71">
+        <v>-0.01962082230754568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1109469870552501</v>
+        <v>-0.08402883600916347</v>
       </c>
       <c r="C72">
-        <v>-0.04782954127625505</v>
+        <v>0.04146721073161973</v>
       </c>
       <c r="D72">
-        <v>0.07609779173091696</v>
+        <v>-0.08459036066679919</v>
       </c>
       <c r="E72">
-        <v>-0.0563952035708835</v>
+        <v>0.009178703877189652</v>
       </c>
       <c r="F72">
-        <v>-0.1218277249482301</v>
+        <v>-0.08087697981913598</v>
       </c>
       <c r="G72">
-        <v>-0.10769673248206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08556160790600142</v>
+      </c>
+      <c r="H72">
+        <v>0.1716921374056194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2463374845767463</v>
+        <v>-0.2381252670705271</v>
       </c>
       <c r="C73">
-        <v>-0.07831119625163364</v>
+        <v>0.05076916271491038</v>
       </c>
       <c r="D73">
-        <v>0.0004407422362281245</v>
+        <v>-0.06733411338634247</v>
       </c>
       <c r="E73">
-        <v>0.04993725986432186</v>
+        <v>0.07969916474481523</v>
       </c>
       <c r="F73">
-        <v>-0.3192513787253977</v>
+        <v>-0.02514974901485005</v>
       </c>
       <c r="G73">
-        <v>-0.4792713364304745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1245406319017489</v>
+      </c>
+      <c r="H73">
+        <v>0.5110772710555753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1335735373980984</v>
+        <v>-0.115777199513117</v>
       </c>
       <c r="C74">
-        <v>-0.02427195162286097</v>
+        <v>0.05311368790394806</v>
       </c>
       <c r="D74">
-        <v>0.03992125957582605</v>
+        <v>-0.09920896204630394</v>
       </c>
       <c r="E74">
-        <v>-0.01643147333538736</v>
+        <v>0.006093460776760875</v>
       </c>
       <c r="F74">
-        <v>0.08650018383764362</v>
+        <v>-0.06572238390441366</v>
       </c>
       <c r="G74">
-        <v>-0.036438638955428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06533184977600252</v>
+      </c>
+      <c r="H74">
+        <v>-0.01899101800584672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.226158287794815</v>
+        <v>-0.2261567164269518</v>
       </c>
       <c r="C75">
-        <v>-0.08738757788147032</v>
+        <v>0.1051439200877975</v>
       </c>
       <c r="D75">
-        <v>0.1265426520231878</v>
+        <v>-0.1609167303461547</v>
       </c>
       <c r="E75">
-        <v>-0.06673411568061784</v>
+        <v>0.02681687449793045</v>
       </c>
       <c r="F75">
-        <v>0.1507318571341817</v>
+        <v>-0.1513106349146335</v>
       </c>
       <c r="G75">
-        <v>0.02047899603240585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1314425935711316</v>
+      </c>
+      <c r="H75">
+        <v>-0.0974547378672465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.276542041214382</v>
+        <v>-0.2001177187837267</v>
       </c>
       <c r="C76">
-        <v>-0.04190031452738027</v>
+        <v>0.09812483545568441</v>
       </c>
       <c r="D76">
-        <v>0.1628435718414565</v>
+        <v>-0.1560071816662661</v>
       </c>
       <c r="E76">
-        <v>-0.03999731783273463</v>
+        <v>-0.01675794753503383</v>
       </c>
       <c r="F76">
-        <v>0.1794747315253118</v>
+        <v>-0.1526761553120348</v>
       </c>
       <c r="G76">
-        <v>0.02671324673103075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1404433453910199</v>
+      </c>
+      <c r="H76">
+        <v>-0.1100656530317204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1464929199341015</v>
+        <v>-0.07093692307796827</v>
       </c>
       <c r="C77">
-        <v>-0.03257065887277386</v>
+        <v>0.01042299712535391</v>
       </c>
       <c r="D77">
-        <v>-0.06255604789004401</v>
+        <v>-0.07452634126700479</v>
       </c>
       <c r="E77">
-        <v>-0.1025994559006533</v>
+        <v>0.01611202372252861</v>
       </c>
       <c r="F77">
-        <v>-0.1681811480668959</v>
+        <v>0.02955079618172594</v>
       </c>
       <c r="G77">
-        <v>0.2147800344500081</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1193560122992555</v>
+      </c>
+      <c r="H77">
+        <v>-0.05068255888260719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06196197594391063</v>
+        <v>-0.03724044366808366</v>
       </c>
       <c r="C78">
-        <v>-0.02947521853495974</v>
+        <v>0.01070243016642597</v>
       </c>
       <c r="D78">
-        <v>-0.001048167272905135</v>
+        <v>-0.06407071517400791</v>
       </c>
       <c r="E78">
-        <v>-0.09914364747987583</v>
+        <v>0.003260779846602499</v>
       </c>
       <c r="F78">
-        <v>-0.0448956388949566</v>
+        <v>-0.02667316277368552</v>
       </c>
       <c r="G78">
-        <v>0.05977153145878893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05875564558392956</v>
+      </c>
+      <c r="H78">
+        <v>0.04563088848944085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1682132044105558</v>
+        <v>-0.1560196052904821</v>
       </c>
       <c r="C80">
-        <v>0.9310053033481486</v>
+        <v>0.04881495607949339</v>
       </c>
       <c r="D80">
-        <v>0.1448996441802518</v>
+        <v>-0.05120255316374919</v>
       </c>
       <c r="E80">
-        <v>-0.2489663097073986</v>
+        <v>-0.9610010303401402</v>
       </c>
       <c r="F80">
-        <v>-0.04008916406440355</v>
+        <v>0.1469819885950597</v>
       </c>
       <c r="G80">
-        <v>-0.04817827248636541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.08872096593579278</v>
+      </c>
+      <c r="H80">
+        <v>0.009401969740650509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1641684285394437</v>
+        <v>-0.1474955706296738</v>
       </c>
       <c r="C81">
-        <v>-0.04324706340853725</v>
+        <v>0.06758554164078738</v>
       </c>
       <c r="D81">
-        <v>0.1082000783728683</v>
+        <v>-0.1003361764445742</v>
       </c>
       <c r="E81">
-        <v>-0.04202856514783276</v>
+        <v>-0.001590818238531251</v>
       </c>
       <c r="F81">
-        <v>0.1476751982291685</v>
+        <v>-0.09447004474130645</v>
       </c>
       <c r="G81">
-        <v>-0.02530210600255381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08725847610907674</v>
+      </c>
+      <c r="H81">
+        <v>-0.07304524318243083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0516506125653891</v>
+        <v>-0.03323288125661305</v>
       </c>
       <c r="C83">
-        <v>-0.03543940267650252</v>
+        <v>0.00608958117759473</v>
       </c>
       <c r="D83">
-        <v>-0.02933126227258093</v>
+        <v>-0.02340724389572615</v>
       </c>
       <c r="E83">
-        <v>-0.02756088758303886</v>
+        <v>0.01516474268954074</v>
       </c>
       <c r="F83">
-        <v>-0.04828036123703577</v>
+        <v>-0.002183019951786692</v>
       </c>
       <c r="G83">
-        <v>0.05692497295168164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05667028941539016</v>
+      </c>
+      <c r="H83">
+        <v>0.02652818488614744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2466136869417704</v>
+        <v>-0.2124875477444806</v>
       </c>
       <c r="C85">
-        <v>-0.05947474156138198</v>
+        <v>0.08735018210104059</v>
       </c>
       <c r="D85">
-        <v>0.1303946131011543</v>
+        <v>-0.1611268251878477</v>
       </c>
       <c r="E85">
-        <v>-0.04427288060569583</v>
+        <v>0.01644638515521364</v>
       </c>
       <c r="F85">
-        <v>0.1675131060655015</v>
+        <v>-0.1347388944512879</v>
       </c>
       <c r="G85">
-        <v>0.04946960994487863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1505777737579082</v>
+      </c>
+      <c r="H85">
+        <v>-0.07131027099856536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00176760123016876</v>
+        <v>-0.01897674147937951</v>
       </c>
       <c r="C86">
-        <v>0.00180637896867857</v>
+        <v>-9.266778862846308e-05</v>
       </c>
       <c r="D86">
-        <v>-0.01691466947887135</v>
+        <v>-0.002553091216967382</v>
       </c>
       <c r="E86">
-        <v>-0.05176568958988817</v>
+        <v>0.01039545750885488</v>
       </c>
       <c r="F86">
-        <v>-0.06562603921773008</v>
+        <v>0.01125110461453929</v>
       </c>
       <c r="G86">
-        <v>0.04239912431791087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07967060199502164</v>
+      </c>
+      <c r="H86">
+        <v>0.05381700834552081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.037812450473948</v>
+        <v>-0.02936608612850145</v>
       </c>
       <c r="C87">
-        <v>-0.01081999078869996</v>
+        <v>0.003573845949886404</v>
       </c>
       <c r="D87">
-        <v>-0.003094451993976806</v>
+        <v>-0.03188844259599234</v>
       </c>
       <c r="E87">
-        <v>-0.02656865265160679</v>
+        <v>0.004097392975035398</v>
       </c>
       <c r="F87">
-        <v>-0.09774432173033124</v>
+        <v>-0.009143078934053939</v>
       </c>
       <c r="G87">
-        <v>0.03232415742072732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09180826278101545</v>
+      </c>
+      <c r="H87">
+        <v>0.0474901046422135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01202703711841343</v>
+        <v>-0.03798893155888285</v>
       </c>
       <c r="C88">
-        <v>0.009930813112158765</v>
+        <v>-0.0101153967402741</v>
       </c>
       <c r="D88">
-        <v>0.0183204794288158</v>
+        <v>-0.001203276625645141</v>
       </c>
       <c r="E88">
-        <v>-0.001394908203513832</v>
+        <v>-0.009502647748988104</v>
       </c>
       <c r="F88">
-        <v>-0.01761039972720905</v>
+        <v>-0.01122841995256537</v>
       </c>
       <c r="G88">
-        <v>0.06720458058700808</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.00385953172513749</v>
+      </c>
+      <c r="H88">
+        <v>0.009771248712359537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08942223657022856</v>
+        <v>-0.242759748871487</v>
       </c>
       <c r="C89">
-        <v>0.01993879909046912</v>
+        <v>0.04251552276202383</v>
       </c>
       <c r="D89">
-        <v>0.07273290141992125</v>
+        <v>0.3432827264000956</v>
       </c>
       <c r="E89">
-        <v>0.2802082229316389</v>
+        <v>0.0498820828969484</v>
       </c>
       <c r="F89">
-        <v>-0.1493532091377565</v>
+        <v>0.07074847913935968</v>
       </c>
       <c r="G89">
-        <v>0.06996589619025573</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001803746135628717</v>
+      </c>
+      <c r="H89">
+        <v>-0.02945979358218796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08640357465847923</v>
+        <v>-0.1988484773324934</v>
       </c>
       <c r="C90">
-        <v>0.07221601074741653</v>
+        <v>0.03599543166405392</v>
       </c>
       <c r="D90">
-        <v>0.0891977832456225</v>
+        <v>0.303680653936987</v>
       </c>
       <c r="E90">
-        <v>0.3055538234876494</v>
+        <v>0.02765654787678282</v>
       </c>
       <c r="F90">
-        <v>-0.1254368702106312</v>
+        <v>0.08292090864417315</v>
       </c>
       <c r="G90">
-        <v>0.05391069006406803</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03840913063033265</v>
+      </c>
+      <c r="H90">
+        <v>-0.05297196297474812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2974226989444826</v>
+        <v>-0.2329324652492147</v>
       </c>
       <c r="C91">
-        <v>-0.07017027077647364</v>
+        <v>0.1064327338150733</v>
       </c>
       <c r="D91">
-        <v>0.1247454827366609</v>
+        <v>-0.1540156331660595</v>
       </c>
       <c r="E91">
-        <v>-0.01336890053814033</v>
+        <v>0.01795352680127411</v>
       </c>
       <c r="F91">
-        <v>0.2357348596805294</v>
+        <v>-0.142206176684167</v>
       </c>
       <c r="G91">
-        <v>-0.01348552864371987</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1695608460289628</v>
+      </c>
+      <c r="H91">
+        <v>-0.1426591169540617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1511042167987356</v>
+        <v>-0.2427450363554145</v>
       </c>
       <c r="C92">
-        <v>0.0761682260032053</v>
+        <v>0.09817803287152781</v>
       </c>
       <c r="D92">
-        <v>0.1557529553915548</v>
+        <v>0.2390980381759789</v>
       </c>
       <c r="E92">
-        <v>0.462606975211357</v>
+        <v>0.01310763636263869</v>
       </c>
       <c r="F92">
-        <v>0.02983246264554854</v>
+        <v>0.04080396974299177</v>
       </c>
       <c r="G92">
-        <v>0.4203171815830118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03376854363758391</v>
+      </c>
+      <c r="H92">
+        <v>-0.1600948179596769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08254888648796371</v>
+        <v>-0.222769115424386</v>
       </c>
       <c r="C93">
-        <v>0.08590526755342011</v>
+        <v>0.04814618062347738</v>
       </c>
       <c r="D93">
-        <v>0.09441337461703268</v>
+        <v>0.3306638758752958</v>
       </c>
       <c r="E93">
-        <v>0.4258121051604569</v>
+        <v>0.04132325164141141</v>
       </c>
       <c r="F93">
-        <v>-0.0899470966062164</v>
+        <v>0.1021298054578311</v>
       </c>
       <c r="G93">
-        <v>-0.02815285281466129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05503661903940166</v>
+      </c>
+      <c r="H93">
+        <v>-0.0001071770993330142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2892940976836046</v>
+        <v>-0.2558926734208976</v>
       </c>
       <c r="C94">
-        <v>-0.1094077674132429</v>
+        <v>0.09699787092645451</v>
       </c>
       <c r="D94">
-        <v>0.2062300434855373</v>
+        <v>-0.1407223567734199</v>
       </c>
       <c r="E94">
-        <v>-0.04112280218853107</v>
+        <v>0.03475045043568529</v>
       </c>
       <c r="F94">
-        <v>0.2501219268430572</v>
+        <v>-0.1876103247585428</v>
       </c>
       <c r="G94">
-        <v>-0.07692534142175603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1700297968990391</v>
+      </c>
+      <c r="H94">
+        <v>-0.1518601338497366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07400084577120918</v>
+        <v>-0.05347295566963313</v>
       </c>
       <c r="C95">
-        <v>-0.06508648237837375</v>
+        <v>0.0294631627697085</v>
       </c>
       <c r="D95">
-        <v>-0.04038806305211327</v>
+        <v>-0.09319249114585666</v>
       </c>
       <c r="E95">
-        <v>-0.1024992517288772</v>
+        <v>0.07972667868747636</v>
       </c>
       <c r="F95">
-        <v>0.0201243981646502</v>
+        <v>-0.001788139937945634</v>
       </c>
       <c r="G95">
-        <v>0.1758058643415252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05460668500450661</v>
+      </c>
+      <c r="H95">
+        <v>0.01615317388549356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1857725622793691</v>
+        <v>-0.1816638400874496</v>
       </c>
       <c r="C98">
-        <v>-0.03785994220690561</v>
+        <v>0.07152411304661488</v>
       </c>
       <c r="D98">
-        <v>-0.006617150247103596</v>
+        <v>-0.03787445048878809</v>
       </c>
       <c r="E98">
-        <v>0.0628494467405553</v>
+        <v>0.05308342152355782</v>
       </c>
       <c r="F98">
-        <v>-0.1617024867611261</v>
+        <v>0.00230062116530257</v>
       </c>
       <c r="G98">
-        <v>-0.3534912413713106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1181646530698799</v>
+      </c>
+      <c r="H98">
+        <v>0.3766440544747752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005118094608128854</v>
+        <v>-0.01388350005379405</v>
       </c>
       <c r="C101">
-        <v>-0.01136107170428517</v>
+        <v>-0.0007893612813254996</v>
       </c>
       <c r="D101">
-        <v>0.003780371057990825</v>
+        <v>-0.0093317805026631</v>
       </c>
       <c r="E101">
-        <v>-0.1118943473208591</v>
+        <v>-0.004148367435381616</v>
       </c>
       <c r="F101">
-        <v>-0.1330611510379848</v>
+        <v>-0.01993365763740301</v>
       </c>
       <c r="G101">
-        <v>0.1612340016585566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1080902839267772</v>
+      </c>
+      <c r="H101">
+        <v>-0.0532055581772729</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1001397411037484</v>
+        <v>-0.1023819714649664</v>
       </c>
       <c r="C102">
-        <v>-0.02512582797973006</v>
+        <v>0.03461898265810182</v>
       </c>
       <c r="D102">
-        <v>0.04240053527207228</v>
+        <v>-0.07985048776767205</v>
       </c>
       <c r="E102">
-        <v>-0.05314271048435693</v>
+        <v>0.001407383014492396</v>
       </c>
       <c r="F102">
-        <v>0.1337170682036004</v>
+        <v>-0.06687999394358257</v>
       </c>
       <c r="G102">
-        <v>0.04478009055650829</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08325046295585847</v>
+      </c>
+      <c r="H102">
+        <v>-0.06364531907172415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02736377172142206</v>
+        <v>-0.01975468578979584</v>
       </c>
       <c r="C103">
-        <v>-0.01140299179098509</v>
+        <v>0.007813092485115639</v>
       </c>
       <c r="D103">
-        <v>0.01376684370290799</v>
+        <v>-0.01771732033647817</v>
       </c>
       <c r="E103">
-        <v>-0.01629650302246155</v>
+        <v>-0.00676819589142281</v>
       </c>
       <c r="F103">
-        <v>0.01689720987724592</v>
+        <v>-0.01648473269654355</v>
       </c>
       <c r="G103">
-        <v>0.03694872667032154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001272033139533009</v>
+      </c>
+      <c r="H103">
+        <v>-0.01026332731101964</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2820372251048717</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9426264082311261</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.007547519826174838</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02513134251911756</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1452371943970522</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02115089424419389</v>
+      </c>
+      <c r="H104">
+        <v>-0.03302502673797387</v>
       </c>
     </row>
   </sheetData>
